--- a/data/income_statement/1digit/size/G_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/G_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>318843279.31124</v>
+        <v>315274287.90972</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>388314736.17759</v>
+        <v>400875473.28552</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>543767610.7315501</v>
+        <v>539413317.10993</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>643995838.9798599</v>
+        <v>638918828.8669399</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>662301630.91833</v>
+        <v>657831213.3094801</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>801891284.5651901</v>
+        <v>798240490.33709</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>884107305.6757199</v>
+        <v>915137790.1808798</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1023014373.41736</v>
+        <v>1043183591.76787</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1420786996.72457</v>
+        <v>1400167065.02351</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1369728520.45628</v>
+        <v>1354300341.28483</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1621485828.48453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1612950880.16196</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2079493703.422</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>274093659.76502</v>
+        <v>271122579.97789</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>334877959.69853</v>
+        <v>346328835.04554</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>465505618.68329</v>
+        <v>461868703.03252</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>539908287.37325</v>
+        <v>535713078.02977</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>564101786.5522101</v>
+        <v>560915657.2666501</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>681978190.8327299</v>
+        <v>679320829.6444499</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>751952863.31563</v>
+        <v>779944451.9857399</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>880358449.5997101</v>
+        <v>898403561.74755</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1211547598.69097</v>
+        <v>1193595713.85096</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1136366601.94097</v>
+        <v>1124323506.1298</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1328711944.22429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1323173575.58149</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1743149734.562</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>36987588.43646</v>
+        <v>36506972.45155</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>43357495.92429001</v>
+        <v>44561403.30026</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>67094590.95432</v>
+        <v>66518244.57398</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>91630352.44004001</v>
+        <v>90956505.16950999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>85781243.62426001</v>
+        <v>84558317.07040001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>104628777.67602</v>
+        <v>103419442.49862</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>113577478.18347</v>
+        <v>116315066.55209</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>121712621.77125</v>
+        <v>123622339.44946</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>183393008.76558</v>
+        <v>181306891.4498</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>209368737.45147</v>
+        <v>206440773.842</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>263987719.54566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>261475110.57352</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>300218567.406</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>7762031.109759999</v>
+        <v>7644735.480280001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>10079280.55477</v>
+        <v>9985234.939720001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11167401.09394</v>
+        <v>11026369.50343</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>12457199.16657</v>
+        <v>12249245.66766</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>12418600.74186</v>
+        <v>12357238.97243</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>15284316.05644</v>
+        <v>15500218.19402</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18576964.17662</v>
+        <v>18878271.64305</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>20943302.04640001</v>
+        <v>21157690.57085999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>25846389.26802</v>
+        <v>25264459.72275</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>23993181.06384</v>
+        <v>23536061.31302999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>28786164.71458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>28302194.00695</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>36125401.454</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>23780681.37529</v>
+        <v>23589890.57824</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>22456012.46114</v>
+        <v>22843893.42134</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>29967292.32079</v>
+        <v>29837506.00109</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>35050989.19495001</v>
+        <v>34966824.61133999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>39194695.69425</v>
+        <v>39060297.47237</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>46503836.62325001</v>
+        <v>46376774.96339</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>52041794.66176</v>
+        <v>53101486.16113999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>59794150.71551</v>
+        <v>60280989.79366</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>73022930.95528999</v>
+        <v>72121093.98017</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>76493554.94735998</v>
+        <v>75535659.68706</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>94898733.74839999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>94251053.41453999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>116776164.24</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9257096.783840001</v>
+        <v>9166817.160800001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5591534.78357</v>
+        <v>5509793.09132</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7337665.12338</v>
+        <v>7243555.495639999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>9101978.598639999</v>
+        <v>8965487.347239999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9982498.460050002</v>
+        <v>9822419.780839998</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13515732.25385</v>
+        <v>13488279.67149</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13549300.16719</v>
+        <v>13697026.63383</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>18079119.44651</v>
+        <v>17223783.36803</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>19206000.59666</v>
+        <v>18670466.12631</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>21103487.20634</v>
+        <v>20505574.11648</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>24519998.84975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>24355170.70905001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>31436720.55</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>13064561.36287</v>
+        <v>12988294.34697</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>15063764.67294</v>
+        <v>15358514.00406</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>20048990.51155999</v>
+        <v>20023419.70101</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>23193989.23661</v>
+        <v>23212949.12621</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>26125175.84208</v>
+        <v>26169307.33003</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>28413975.4875</v>
+        <v>28335747.75488</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>32353247.0765</v>
+        <v>33229027.62465</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>35668964.79458</v>
+        <v>36947206.20341</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>46312546.48852</v>
+        <v>45992463.39807</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>46874243.9618</v>
+        <v>46563696.80168001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>60775567.64283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>60354787.68869</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>73894386.346</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1459023.22858</v>
+        <v>1434779.07047</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1800713.00463</v>
+        <v>1975586.32596</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2580636.68585</v>
+        <v>2570530.80444</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2755021.3597</v>
+        <v>2788388.13789</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3087021.39212</v>
+        <v>3068570.3615</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4574128.8819</v>
+        <v>4552747.53702</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6139247.418069999</v>
+        <v>6175431.90266</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6046066.47442</v>
+        <v>6110000.22222</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>7504383.87011</v>
+        <v>7458164.45579</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>8515823.77922</v>
+        <v>8466388.7689</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9603167.255820002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>9541095.016800001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>11445057.344</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>295062597.93595</v>
+        <v>291684397.33148</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>365858723.71645</v>
+        <v>378031579.86418</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>513800318.41076</v>
+        <v>509575811.10884</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>608944849.7849101</v>
+        <v>603952004.2556</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>623106935.22408</v>
+        <v>618770915.83711</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>755387447.9419401</v>
+        <v>751863715.3737</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>832065511.01396</v>
+        <v>862036304.01974</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>963220222.7018498</v>
+        <v>982902601.9742103</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1347764065.76928</v>
+        <v>1328045971.04334</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1293234965.50892</v>
+        <v>1278764681.59777</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1526587094.73613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1518699826.74742</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1962717539.182</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>257099130.79342</v>
+        <v>254348820.79078</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>320169188.0019001</v>
+        <v>332073538.9988999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>453498051.46555</v>
+        <v>450172360.62549</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>541132627.68269</v>
+        <v>537201790.35144</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>548779806.4587399</v>
+        <v>545501689.1997899</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>668426342.3081201</v>
+        <v>665265590.8104199</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>729907722.7038801</v>
+        <v>757595859.6194801</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>843443068.0939299</v>
+        <v>859787221.57928</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1186760671.10446</v>
+        <v>1170790492.2489</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1132668425.9865</v>
+        <v>1120868573.43692</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1339628853.49712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1333822952.13478</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1732928751.455</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>16746827.13452</v>
+        <v>16501272.04462</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>27332242.81538</v>
+        <v>27145911.97578001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>27481152.70506</v>
+        <v>27163679.53132</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>31872352.49334</v>
+        <v>31448729.92526999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>32247328.79744</v>
+        <v>32321778.7491</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>40892191.56801</v>
+        <v>40308165.90328</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>40547494.73241999</v>
+        <v>40864032.42108</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>45064518.52786</v>
+        <v>46350562.5514</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>68320042.58584</v>
+        <v>66857598.51269001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>51339567.00307</v>
+        <v>50380520.75426</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>77970190.36898999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>77493110.37642999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>112428838.703</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>236499150.3606699</v>
+        <v>234131593.74508</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>288292559.19622</v>
+        <v>300510000.304</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>418885168.2689499</v>
+        <v>416040053.04669</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>501611568.08719</v>
+        <v>498386657.56182</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>508581770.44991</v>
+        <v>505485822.04578</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>618238120.0368</v>
+        <v>616076557.5061001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>679054270.68278</v>
+        <v>706274727.0863099</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>783081765.6724501</v>
+        <v>798772830.5922998</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1093099607.04292</v>
+        <v>1079568580.70736</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1065185458.57742</v>
+        <v>1055147885.84088</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1239044067.86907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1234731118.73909</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1596481384.915</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3488309.576450001</v>
+        <v>3398606.166149999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4013867.766319999</v>
+        <v>3918539.455649999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6083926.769880001</v>
+        <v>5938086.5683</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6520872.757900001</v>
+        <v>6280267.42154</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6396835.30415</v>
+        <v>6198002.40701</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7966095.12801</v>
+        <v>7569739.19934</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8717585.93661</v>
+        <v>8920373.918889999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13467695.26441</v>
+        <v>12895167.811</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>21095048.37282</v>
+        <v>20261714.08545</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>13352659.48674</v>
+        <v>12751472.21307</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>18146211.64627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17369797.70319</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>20448430.507</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>364843.72178</v>
+        <v>317348.83493</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>530518.22398</v>
+        <v>499087.26347</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1047803.72166</v>
+        <v>1030541.47918</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1127834.34426</v>
+        <v>1086135.44281</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1553871.90724</v>
+        <v>1496085.9979</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1329935.5753</v>
+        <v>1311128.2017</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1588371.35207</v>
+        <v>1536726.1932</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1829088.62921</v>
+        <v>1768660.62458</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4245973.10288</v>
+        <v>4102598.9434</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2790740.91927</v>
+        <v>2588694.62871</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4468383.61279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4228925.31607</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3570097.33</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>37963467.14253</v>
+        <v>37335576.5407</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>45689535.71455</v>
+        <v>45958040.86528001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>60302266.94521</v>
+        <v>59403450.48335</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>67812222.10222</v>
+        <v>66750213.90416</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>74327128.76534</v>
+        <v>73269226.63732001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>86961105.63382001</v>
+        <v>86598124.56328</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>102157788.31008</v>
+        <v>104440444.40026</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>119777154.60792</v>
+        <v>123115380.39493</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>161003394.66482</v>
+        <v>157255478.79444</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>160566539.52242</v>
+        <v>157896108.16085</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>186958241.23901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>184876874.61264</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>229788787.727</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>29992485.14057</v>
+        <v>29367150.68165</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>36152901.60353</v>
+        <v>35883074.94589</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>46082441.24086999</v>
+        <v>45210562.13093001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>54612736.61415</v>
+        <v>53614345.916</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>58576445.05271</v>
+        <v>57707567.83103</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>69550864.39940999</v>
+        <v>69601187.56013</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>80335591.42767002</v>
+        <v>82329520.07173999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>92397272.64826001</v>
+        <v>94718734.85777998</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>117779919.52434</v>
+        <v>115089236.84532</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>119004639.98466</v>
+        <v>116980010.17081</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>141673402.62376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>140018118.31726</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>164324223.469</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>126861.3011</v>
+        <v>121969.98441</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>105210.38753</v>
+        <v>98555.05306000002</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>130847.22559</v>
+        <v>130578.78535</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>185431.84103</v>
+        <v>179667.78418</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>196910.71602</v>
+        <v>187423.80879</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>216931.85857</v>
+        <v>205097.25654</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>239627.62805</v>
+        <v>244500.69339</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>312886.97116</v>
+        <v>315034.09973</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>398276.30943</v>
+        <v>387678.2112500001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>399410.4067</v>
+        <v>393084.94735</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>676644.44069</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>658849.7280399998</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>797546.835</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>20843801.88317</v>
+        <v>20587181.65754</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>25335451.35306</v>
+        <v>25477000.98593</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32352097.16432</v>
+        <v>32027491.99703999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>38830611.31927001</v>
+        <v>38434743.39462</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>42171580.12427001</v>
+        <v>41709946.27617001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>50470093.40261</v>
+        <v>50462023.38294</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>58154866.30681001</v>
+        <v>59735656.21160999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>66037046.54258</v>
+        <v>67940756.33929999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>84596225.79767999</v>
+        <v>83498337.14102</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>88982998.16794001</v>
+        <v>88049253.95192002</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>105248895.21902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>104713976.77281</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>122098623.935</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>9021821.956300002</v>
+        <v>8657999.039700001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>10712239.86294</v>
+        <v>10307518.9069</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>13599496.85096</v>
+        <v>13052491.34854</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>15596693.45385</v>
+        <v>14999934.7372</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>16207954.21242</v>
+        <v>15810197.74607</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>18863839.13823</v>
+        <v>18934066.92065</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>21941097.49281</v>
+        <v>22349363.16674</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>26047339.13452</v>
+        <v>26462944.41875</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>32785417.41723</v>
+        <v>31203221.49304999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>29622231.41002</v>
+        <v>28537671.27154</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>35747862.96404999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>34645291.81641</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>41428052.699</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7970982.00196</v>
+        <v>7968425.859050001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>9536634.111020001</v>
+        <v>10074965.91939</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>14219825.70434</v>
+        <v>14192888.35242</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>13199485.48807</v>
+        <v>13135867.98816</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>15750683.71263</v>
+        <v>15561658.80629</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>17410241.23441</v>
+        <v>16996937.00315</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>21822196.88241</v>
+        <v>22110924.32852</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>27379881.95966</v>
+        <v>28396645.53715</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>43223475.14048001</v>
+        <v>42166241.94911999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>41561899.53776</v>
+        <v>40916097.99004</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>45284838.61525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>44858756.29538</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>65464564.258</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>21932617.65276</v>
+        <v>17853580.10633</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>16189498.46131</v>
+        <v>16257619.96797</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>21664924.43124</v>
+        <v>19738637.34613</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>21273921.30943</v>
+        <v>18899652.29135</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>29702095.80675999</v>
+        <v>26402085.32571</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>33214228.46302</v>
+        <v>30664943.53145</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>47954393.66585</v>
+        <v>45971660.22948</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>58120309.97837999</v>
+        <v>56495298.18985</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>244460986.61431</v>
+        <v>237949262.12681</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>139055494.88287</v>
+        <v>127006740.46949</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>101227395.70894</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>93448965.55183001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>144255350.196</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>543094.3445600001</v>
+        <v>178439.29943</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>701273.59644</v>
+        <v>276049.53767</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>790792.06375</v>
+        <v>289852.1875300001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>838243.08845</v>
+        <v>312137.71596</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1038066.7186</v>
+        <v>426053.3383999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1011239.74717</v>
+        <v>511847.8077400001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>866123.29527</v>
+        <v>400289.01053</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1164444.95385</v>
+        <v>483143.95453</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2826714.432270001</v>
+        <v>759807.9379</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1821651.59145</v>
+        <v>929893.4652800001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>2220684.47006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1156741.13466</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>720573.875</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2922003.25361</v>
+        <v>463081.7739300001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>519301.9186499999</v>
+        <v>301794.85037</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>600443.93329</v>
+        <v>427657.27207</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1087377.21853</v>
+        <v>913083.4356699999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>951395.7578299999</v>
+        <v>730886.7956000002</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>896210.60221</v>
+        <v>730074.97249</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1120179.61938</v>
+        <v>922264.82939</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1378875.4532</v>
+        <v>1317373.92088</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1289233.68431</v>
+        <v>1105698.00675</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2049900.5332</v>
+        <v>1101642.97873</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>1403533.80482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1223093.10727</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2116892.174</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1065719.50936</v>
+        <v>972687.124</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1022535.68</v>
+        <v>968021.9987</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1206734.41117</v>
+        <v>1065332.27444</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1403308.79786</v>
+        <v>1204951.57199</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1389750.17245</v>
+        <v>1192438.9125</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1821034.25985</v>
+        <v>1545863.87873</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2186076.56951</v>
+        <v>1951897.38805</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2482844.34918</v>
+        <v>2335969.15426</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>3736834.637749999</v>
+        <v>3286122.07975</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5553359.714720001</v>
+        <v>4842084.392940001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6891172.51385</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6282904.107879999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6229598.257</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>405977.83841</v>
+        <v>399108.25199</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>240293.017</v>
+        <v>235700.23487</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>317897.1200999999</v>
+        <v>310999.57303</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>343385.93259</v>
+        <v>340814.35127</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>342010.0018500001</v>
+        <v>335427.8168</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>346001.23101</v>
+        <v>332809.01731</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>420077.84553</v>
+        <v>412202.01422</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>525797.0707899999</v>
+        <v>550071.36428</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>596730.31148</v>
+        <v>570692.32943</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>695885.0393299999</v>
+        <v>661729.6285399999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>790214.6542100001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>783751.8246699999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>808761.37</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>404452.22125</v>
+        <v>277027.77081</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>393065.76796</v>
+        <v>275438.68482</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>516145.03292</v>
+        <v>322301.21779</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>498751.65373</v>
+        <v>342553.3794799999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>534092.40466</v>
+        <v>380383.11575</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>461971.96338</v>
+        <v>417382.19883</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>787900.833</v>
+        <v>563708.9183499999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>712328.4847499999</v>
+        <v>566366.16059</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>794435.8035600001</v>
+        <v>709145.1314099998</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>836457.70718</v>
+        <v>749654.4029899999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>991527.0163999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>895650.8000500001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>988131.031</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>114212.98659</v>
+        <v>109171.02764</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>446204.70628</v>
+        <v>414415.3337499999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>432894.31949</v>
+        <v>321058.2422</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>485254.3207100001</v>
+        <v>184532.43789</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>347295.23557</v>
+        <v>276568.91274</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>627974.90727</v>
+        <v>599012.46616</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>355882.32283</v>
+        <v>323651.70431</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>310701.6789</v>
+        <v>291323.58497</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>482303.45391</v>
+        <v>408072.2621100001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>1137604.83786</v>
+        <v>907708.6093600001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1013561.82989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>844301.3181600001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1146496.698</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>12710177.86271</v>
+        <v>11801419.16903</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9603732.28692</v>
+        <v>9529529.16027</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>11983299.2689</v>
+        <v>11359730.96637</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>9704165.995760001</v>
+        <v>9146314.637370002</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>16871362.29034</v>
+        <v>15642314.64134</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>19092116.04399</v>
+        <v>17889598.18122</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>31939739.4264</v>
+        <v>31130785.44622999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>40429076.38431001</v>
+        <v>40101047.79246</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>221072804.46583</v>
+        <v>217912325.04083</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>110063524.53431</v>
+        <v>101715736.66776</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>68033569.09439999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>63506751.5072</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>113634014.736</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>167944.1618</v>
+        <v>167098.1786</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>150528.04178</v>
+        <v>143387.14711</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>185239.84736</v>
+        <v>178759.03054</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>207231.93841</v>
+        <v>201175.60581</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>433439.51086</v>
+        <v>410926.5895</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>705905.61356</v>
+        <v>696562.14368</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>740239.81541</v>
+        <v>717729.4703200001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>834888.04715</v>
+        <v>899180.16122</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>820347.0598399999</v>
+        <v>783358.40832</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1310947.61816</v>
+        <v>1260349.90124</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2190700.30204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2157557.76812</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1500472.695</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>21666.10631</v>
+        <v>21346.76849</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>28293.03807</v>
+        <v>23686.0998</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>28737.42443</v>
+        <v>28078.31786</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>13740.30323</v>
+        <v>11677.68633</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>12817.03044</v>
+        <v>7668.579430000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>28108.44063</v>
+        <v>23916.32732</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>25665.59766</v>
+        <v>23736.81886</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>38069.25022</v>
+        <v>32876.33004</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>215370.35686</v>
+        <v>200491.32334</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>150643.93627</v>
+        <v>148422.51276</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>139166.30191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>134193.35781</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>143316.357</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3577369.36816</v>
+        <v>3464200.74241</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3084270.40821</v>
+        <v>4089596.92061</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>5602741.00983</v>
+        <v>5434868.2643</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>6692462.06016</v>
+        <v>6242411.469579999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>7781866.684159999</v>
+        <v>6999416.623649999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>8223665.653950001</v>
+        <v>7917876.53797</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>9512508.340860002</v>
+        <v>9525394.62922</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>10243284.30603</v>
+        <v>9917945.766620003</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>12626212.4085</v>
+        <v>12213549.60697</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15435519.37039</v>
+        <v>14689517.90989</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>17553265.72136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>16464020.62601</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>16967093.003</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>15574814.11177</v>
+        <v>14621485.25363</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>11865491.92299</v>
+        <v>13041417.24053</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>18902197.22357</v>
+        <v>17779381.27396</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>13994443.40003</v>
+        <v>13210180.15247</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>26692372.02454</v>
+        <v>24605870.05335</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>27474062.54734001</v>
+        <v>25720264.61559</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>43789062.69628</v>
+        <v>42310280.72403</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>53419697.70869</v>
+        <v>51995596.02287</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>236114130.57777</v>
+        <v>231766314.65901</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>131544339.11482</v>
+        <v>120940525.99903</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>87351185.29497001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>82409440.53458998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>134344794.835</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>203465.36086</v>
+        <v>194881.01669</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>243219.32427</v>
+        <v>232388.99507</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>329212.7315599999</v>
+        <v>323440.62092</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>409439.27584</v>
+        <v>403164.93494</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>377709.7493900001</v>
+        <v>374508.8468</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>447617.93985</v>
+        <v>441818.33201</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>417762.26993</v>
+        <v>407217.35189</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>507207.59367</v>
+        <v>606453.5905999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>862929.6572399999</v>
+        <v>848379.25908</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>799157.28929</v>
+        <v>793319.5506800001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1029876.71214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1026321.19107</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1229481.796</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>774177.62029</v>
+        <v>709854.55714</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>705203.97872</v>
+        <v>685896.0502399999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>788838.6141200002</v>
+        <v>763059.9637600001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1211604.97013</v>
+        <v>1146994.27831</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1343378.68778</v>
+        <v>1304492.07614</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1286500.85979</v>
+        <v>1260653.65696</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1910513.16353</v>
+        <v>1776564.14263</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2321846.3708</v>
+        <v>2207094.84663</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2205123.2746</v>
+        <v>2000246.34244</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2282185.89142</v>
+        <v>1966728.91915</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>2446338.98514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2381961.86611</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2158039.594</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>79036.11416</v>
+        <v>70527.15039</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>59884.66593</v>
+        <v>57395.79010999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>286090.72372</v>
+        <v>265345.72834</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>152411.9064</v>
+        <v>141076.57564</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>176284.57242</v>
+        <v>163086.7819</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>540204.3519399998</v>
+        <v>489512.98564</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>228660.46565</v>
+        <v>232672.52319</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>187923.13605</v>
+        <v>162647.90623</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>178541.28708</v>
+        <v>149305.36105</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>521960.66179</v>
+        <v>511004.92656</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>312960.04263</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>286969.10681</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>589166.732</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>12395422.61385</v>
+        <v>11567563.12754</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9370601.611450002</v>
+        <v>9472683.974260001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13740181.12495</v>
+        <v>12749028.52297</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>7942365.17847</v>
+        <v>7492687.514799999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>19380113.18703</v>
+        <v>17605329.45372</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>19307718.0439</v>
+        <v>17808308.13694</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>34684157.79121</v>
+        <v>33380064.37762</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>43603719.65612</v>
+        <v>42239383.78014</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>224273693.03437</v>
+        <v>220348056.27273</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>115907199.75113</v>
+        <v>105863323.60172</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>69918921.04207999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>65389569.16580001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>116613293.107</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>134646.3838</v>
+        <v>132991.5221</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>150590.98437</v>
+        <v>146951.39954</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>185613.8427</v>
+        <v>179564.62599</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>203076.3364500001</v>
+        <v>196267.21197</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>446731.38377</v>
+        <v>423848.82738</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>734245.4635900001</v>
+        <v>723168.1885699999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>768568.0339500001</v>
+        <v>750540.5880100001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>850717.69787</v>
+        <v>909278.80611</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>930039.5009600001</v>
+        <v>901522.8770500001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1432707.50269</v>
+        <v>1381646.38421</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1998214.7338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1966401.41293</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1636340.094</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>4062.24857</v>
+        <v>2907.9703</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>6835.56664</v>
+        <v>4670.959900000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>12873.57436</v>
+        <v>9673.48518</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>3408.24213</v>
+        <v>2609.93205</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>5831.722</v>
+        <v>2177.83313</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>8400.484060000001</v>
+        <v>5928.3768</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>18669.90731</v>
+        <v>16021.89083</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>21416.55993</v>
+        <v>15594.37861</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>41996.21093</v>
+        <v>26676.13247</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>209274.53184</v>
+        <v>202201.8564</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>102985.36386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>97535.87712000002</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>79787.607</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1984003.77024</v>
+        <v>1942759.90947</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1329155.79161</v>
+        <v>2441430.07141</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3559386.61216</v>
+        <v>3489268.3268</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4072137.49061</v>
+        <v>3827379.70476</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4962322.722149999</v>
+        <v>4732426.23428</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5149375.40421</v>
+        <v>4990874.93867</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>5760731.0647</v>
+        <v>5747199.849859999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5926866.69425</v>
+        <v>5855142.714550001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>7621807.61259</v>
+        <v>7492128.41419</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>10391853.48666</v>
+        <v>10222300.76031</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11541888.41532</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>11260681.91475</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>12038685.905</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>5147499.400350001</v>
+        <v>4639881.80851</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>4153411.98906</v>
+        <v>4120498.54776</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>9087585.330250001</v>
+        <v>8615392.875540001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>8088306.7981</v>
+        <v>7613369.7625</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>9687248.655240001</v>
+        <v>9161095.239880001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>10642530.92747</v>
+        <v>9770465.194870001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>15329224.34311</v>
+        <v>14536598.02329</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>17906725.75597</v>
+        <v>16859188.15728</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>23467992.8421</v>
+        <v>21332214.18737</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>33018998.63905</v>
+        <v>30544783.80927999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>32010355.87879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>30304064.66902</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>31657218.544</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4374451.1232</v>
+        <v>3934258.677170001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>3500005.72705</v>
+        <v>3504710.762500001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>6936332.553059999</v>
+        <v>6573080.91597</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7298152.04208</v>
+        <v>6848406.513</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>8021949.44678</v>
+        <v>7543298.247</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9620456.88098</v>
+        <v>8832280.756790001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>13304297.46845</v>
+        <v>12577479.8432</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>15623896.31102</v>
+        <v>14709362.07662</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>20343633.20698</v>
+        <v>18373396.8059</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>27697225.65585</v>
+        <v>25422066.90216</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>28028153.08482</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>26456656.23127</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>27315543.157</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>773048.27715</v>
+        <v>705623.1313400001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>653406.2620099999</v>
+        <v>615787.78526</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2151252.77719</v>
+        <v>2042311.95957</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>790154.75602</v>
+        <v>764963.2494999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1665299.20846</v>
+        <v>1617796.99288</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1022074.04649</v>
+        <v>938184.43808</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>2024926.87466</v>
+        <v>1959118.18009</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2282829.44495</v>
+        <v>2149826.08066</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3124359.63512</v>
+        <v>2958817.38147</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5321772.9832</v>
+        <v>5122716.90712</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3982202.79397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3847408.43775</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4341675.387</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9181286.1426</v>
+        <v>6560638.903239999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>9707228.660279999</v>
+        <v>9170670.099070001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7894967.58176</v>
+        <v>7536751.54905</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>12390656.59937</v>
+        <v>11211970.36454</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>9073158.839610001</v>
+        <v>8196778.83877</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>12507876.22262</v>
+        <v>12171150.72414</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>10658303.50887</v>
+        <v>11235705.81068</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>14173768.47338</v>
+        <v>16037159.54685</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>28102338.33492</v>
+        <v>27016975.22955</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>16054056.66676</v>
+        <v>16437528.65122</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>27150693.15043001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>25594216.6436</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>43717901.075</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1180667.83781</v>
+        <v>970645.8879600001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1586844.44603</v>
+        <v>1443579.47531</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2950090.45631</v>
+        <v>2200031.35429</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2120131.9343</v>
+        <v>1824950.32838</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2653092.24301</v>
+        <v>2195358.0226</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3470531.64346</v>
+        <v>3039284.597079999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4159479.313679999</v>
+        <v>3889232.563649999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5036684.48765</v>
+        <v>4356913.229660001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5565652.32598</v>
+        <v>4681274.89818</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>6880582.39254</v>
+        <v>5904752.532709999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>5434324.16642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4961332.88455</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7325759.362</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>60966.77647999999</v>
+        <v>50809.42056999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>44483.69986</v>
+        <v>31616.94459</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>103881.6355</v>
+        <v>79457.49318999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>87824.54797999999</v>
+        <v>83188.26532999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>111008.09295</v>
+        <v>86158.05930000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>132283.58297</v>
+        <v>112839.28335</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>114503.64051</v>
+        <v>110159.16637</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>290920.43923</v>
+        <v>263501.31959</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>249447.87952</v>
+        <v>244985.37716</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>109165.64254</v>
+        <v>107790.80623</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>195816.54051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>189257.44657</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>162239.415</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1119701.06133</v>
+        <v>919836.4673899999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1542360.74617</v>
+        <v>1411962.53072</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2846208.82081</v>
+        <v>2120573.8611</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2032307.38632</v>
+        <v>1741762.06305</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2542084.15006</v>
+        <v>2109199.9633</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3338248.06049</v>
+        <v>2926445.31373</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4044975.673170001</v>
+        <v>3779073.39728</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4745764.04842</v>
+        <v>4093411.91007</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5316204.44646</v>
+        <v>4436289.521020001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6771416.75</v>
+        <v>5796961.72648</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>5238507.62591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4772075.43798</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7163519.947</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>971565.89089</v>
+        <v>855720.08234</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1328327.19892</v>
+        <v>1267445.43922</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3832421.41038</v>
+        <v>3367655.04554</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1757454.14513</v>
+        <v>1566028.49195</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2115575.68638</v>
+        <v>1746503.40992</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2818898.29067</v>
+        <v>2554092.60782</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2743229.68435</v>
+        <v>2660781.90204</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4394704.991950001</v>
+        <v>4140911.961709999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4131221.80963</v>
+        <v>3520169.26501</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>5585467.260539999</v>
+        <v>5058448.607019999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5635163.057159998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5123987.657219999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7621252.164</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>95875.88750999999</v>
+        <v>87928.07971999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>98525.81425000001</v>
+        <v>89411.23874000002</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>85854.20963000001</v>
+        <v>82037.68432999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>98449.03224000002</v>
+        <v>88671.75229</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>80010.09228</v>
+        <v>58597.30992</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>122248.43395</v>
+        <v>108876.1601</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>67217.83795999999</v>
+        <v>52926.25858</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>85296.72460000002</v>
+        <v>71733.73945000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>137237.08097</v>
+        <v>122483.43721</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>79157.30983</v>
+        <v>73353.76707</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>181064.80821</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>166196.54198</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>61607.129</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>107138.25621</v>
+        <v>99231.42298999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>199632.86036</v>
+        <v>191354.43985</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>293668.7387</v>
+        <v>234157.90981</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>172714.83096</v>
+        <v>143061.84729</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>175772.44975</v>
+        <v>146915.83848</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>267301.71421</v>
+        <v>258045.01002</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>304833.54943</v>
+        <v>301865.18926</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>382335.47305</v>
+        <v>359581.1894</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>366185.3634500001</v>
+        <v>351115.10125</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>405893.78701</v>
+        <v>384151.59373</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>347238.62058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>326765.22116</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>310854.918</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>768551.74717</v>
+        <v>668560.5796300001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1030168.52431</v>
+        <v>986679.76063</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3452898.462050001</v>
+        <v>3051459.4514</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1486290.28193</v>
+        <v>1334294.89237</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1859793.14435</v>
+        <v>1540990.26152</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>2429348.14251</v>
+        <v>2187171.4377</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2371178.29696</v>
+        <v>2305990.4542</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3927072.794300001</v>
+        <v>3709597.03286</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3627799.365209999</v>
+        <v>3046570.726550001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>5100416.163699999</v>
+        <v>4600943.24622</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>5106859.62837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4631025.89408</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7248790.117</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>9390388.089520002</v>
+        <v>6675564.708860001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>9965745.90739</v>
+        <v>9346804.135159999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>7012636.62769</v>
+        <v>6369127.8578</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>12753334.38854</v>
+        <v>11470892.20097</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9610675.39624</v>
+        <v>8645633.451450001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>13159509.57541</v>
+        <v>12656342.7134</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>12074553.1382</v>
+        <v>12464156.47229</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>14815747.96908</v>
+        <v>16253160.8148</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>29536768.85127</v>
+        <v>28178080.86272</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>17349171.79876</v>
+        <v>17283832.57691</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>26949854.25969</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>25431561.87093</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>43422408.273</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1396529.36864</v>
+        <v>1362003.27131</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1833890.31308</v>
+        <v>1834841.83905</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2232170.21214</v>
+        <v>2170701.30623</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2479794.29858</v>
+        <v>2384522.4464</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2503454.046430001</v>
+        <v>2416494.34828</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2754497.20368</v>
+        <v>2675914.41261</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3432688.64126</v>
+        <v>3397876.63713</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3719227.33018</v>
+        <v>3867599.517190001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>5973171.348279999</v>
+        <v>5782984.95714</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>5873842.916769998</v>
+        <v>5662469.76363</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6820075.573310001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6660487.111179999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>10839927.364</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>7993858.720880001</v>
+        <v>5313561.43755</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>8131855.59431</v>
+        <v>7511962.29611</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>4780466.41555</v>
+        <v>4198426.55157</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>10273540.08996</v>
+        <v>9086369.75457</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7107221.34981</v>
+        <v>6229139.10317</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>10405012.37173</v>
+        <v>9980428.300790001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>8641864.49694</v>
+        <v>9066279.835160002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>11096520.6389</v>
+        <v>12385561.29761</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>23563597.50299</v>
+        <v>22395095.90558</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>11475328.88199</v>
+        <v>11621362.81328</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>20129778.68638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>18771074.75975</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>32582480.909</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1655</v>
+        <v>1271</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2100</v>
+        <v>1647</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2716</v>
+        <v>2209</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3306</v>
+        <v>2646</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2380</v>
+        <v>1864</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2830</v>
+        <v>2205</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3286</v>
+        <v>2585</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3890</v>
+        <v>2962</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4894</v>
+        <v>3729</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1601</v>
+        <v>1273</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1418</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>